--- a/docs/mcode/onco-core-Tumor.xlsx
+++ b/docs/mcode/onco-core-Tumor.xlsx
@@ -335,7 +335,7 @@
 </t>
   </si>
   <si>
-    <t>Primary cancer condition, in which abnormal cells divide without control and can invade nearby tissues. A primary cancer is defined as the original site (organ or tissue) where a cancer began.</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
   </si>
   <si>
     <t>isprimarytumor</t>
@@ -816,7 +816,7 @@
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -833,7 +833,7 @@
   </si>
   <si>
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -853,7 +853,7 @@
 * Specifying the location and type of landmark using a body site code and optional laterality/orientation,
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:

--- a/docs/mcode/onco-core-Tumor.xlsx
+++ b/docs/mcode/onco-core-Tumor.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -149,7 +149,8 @@
     <t>onco-core-Tumor</t>
   </si>
   <si>
-    <t>The presence of an abnormal mass of tissue (neoplasm) that results when cells divide more than they should or do not die when they should. Tumors may be benign (not cancer), or malignant (cancer). (source: NCI Dictionary).</t>
+    <t>The presence of an abnormal mass of tissue (neoplasm) that results when cells divide more than they should or do not die when they should. Tumors may be benign (not cancer), or malignant (cancer). (source: NCI Dictionary).
+Conformance note: For the HistologyMorphologyBehavior attribute, to be compliant with [US Core Profiles](http://hl7.org/fhir/us/core/STU3/index.html), SNOMED CT must be used unless there is no suitable code, in which case ICD-O-3 can be used.</t>
   </si>
   <si>
     <t xml:space="preserve">arg-1:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {clinicalStatus.exists() = (verificationStatus != 'entered-in-error')}
@@ -174,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -190,7 +191,7 @@
     <t>Condition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -200,13 +201,146 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
+    <t>Condition.meta.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Condition.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-SourceSystem-extension}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Condition.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Condition.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Condition.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Condition.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Condition.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
     <t>Condition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -219,7 +353,7 @@
     <t>Condition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -248,7 +382,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -275,7 +409,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -294,34 +428,33 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Author-extension}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Annotation-extension}
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
   </si>
   <si>
     <t>dateofdiagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DateOfDiagnosis-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-DateOfDiagnosis-extension}
 </t>
   </si>
   <si>
@@ -331,17 +464,19 @@
     <t>primarycancercondition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-PrimaryCancerCondition-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-PrimaryCancerCondition-extension}
 </t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (reference https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor). Cancers that are not clearly secondary (i.e., of uncertain origin or behavior) should be documented as primary.
+Cancer staging information summarized in this profile should reflect the most recent staging assessment on the patient, and should be updated if and when there is a new staging assessment. Past staging assessments will be preserved in instances of the TNMClinicalStageGroup and/or TNMPathologicalStageGroup, which refer back to PrimaryCancerCondition.
+Conformance note: For the code attribute, to be compliant with [US Core Profiles](http://hl7.org/fhir/us/core/STU3/index.html), SNOMED CT must be used unless there is no suitable code, in which case ICD-10-CM can be used.</t>
   </si>
   <si>
     <t>isprimarytumor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/onco-core-IsPrimaryTumor-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/onco-core-IsPrimaryTumor-extension}
 </t>
   </si>
   <si>
@@ -360,7 +495,7 @@
     <t>Condition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -382,7 +517,7 @@
     <t>Condition.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
@@ -404,7 +539,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -429,7 +564,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+    <t xml:space="preserve">Reference(Practitioner|http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
@@ -451,7 +586,7 @@
     <t>Condition.dateRecorded</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -476,7 +611,7 @@
     <t>Condition.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -486,10 +621,7 @@
     <t>Identification of the condition, problem or diagnosis.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/onco/core/vs/HistologyMorphologyBehaviorVS</t>
+    <t>http://mcodeinitiative.org/us/mcode/ValueSet/onco-core-HistologyMorphologyBehaviorVS</t>
   </si>
   <si>
     <t>PRB-3</t>
@@ -513,69 +645,69 @@
     <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-category</t>
+  </si>
+  <si>
+    <t>'problem' if from PRB-3. 'diagnosis' if from DG1 segment in PV1 message</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus</t>
+  </si>
+  <si>
+    <t>active | relapse | remission | resolved</t>
+  </si>
+  <si>
+    <t>The clinical status of the condition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
+  </si>
+  <si>
+    <t>PRB-14 / DG1-6</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Condition.verificationStatus</t>
+  </si>
+  <si>
+    <t>provisional | differential | confirmed | refuted | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The verification status to support the clinical status of the condition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
+  </si>
+  <si>
+    <t>PRB-13</t>
+  </si>
+  <si>
+    <t>.code (pre or post-coordinated in)  Can use valueNegationInd for refuted</t>
+  </si>
+  <si>
+    <t>Condition.severity</t>
+  </si>
+  <si>
+    <t>Subjective severity of condition</t>
+  </si>
+  <si>
+    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
+  </si>
+  <si>
+    <t>Coding of the severity with a terminology is preferred, where possible.</t>
+  </si>
+  <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/ConditionCategoryVS</t>
-  </si>
-  <si>
-    <t>'problem' if from PRB-3. 'diagnosis' if from DG1 segment in PV1 message</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Condition.clinicalStatus</t>
-  </si>
-  <si>
-    <t>active | relapse | remission | resolved</t>
-  </si>
-  <si>
-    <t>The clinical status of the condition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
-  </si>
-  <si>
-    <t>PRB-14 / DG1-6</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Condition.verificationStatus</t>
-  </si>
-  <si>
-    <t>provisional | differential | confirmed | refuted | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The verification status to support the clinical status of the condition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
-  </si>
-  <si>
-    <t>PRB-13</t>
-  </si>
-  <si>
-    <t>.code (pre or post-coordinated in)  Can use valueNegationInd for refuted</t>
-  </si>
-  <si>
-    <t>Condition.severity</t>
-  </si>
-  <si>
-    <t>Subjective severity of condition</t>
-  </si>
-  <si>
-    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
-  </si>
-  <si>
-    <t>Coding of the severity with a terminology is preferred, where possible.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
   </si>
   <si>
@@ -591,8 +723,8 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Age]]} {[]}Period {[]} {[]}Range {[]} {[]}string {[]} {[]}</t>
+    <t>dateTime
+Quantity {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Age}PeriodRangestring</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
@@ -616,8 +748,8 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Age]]} {[]}boolean {[]} {[]}Period {[]} {[]}Range {[]} {[]}string {[]} {[]}</t>
+    <t>dateTime
+Quantity {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Age}booleanPeriodRangestring</t>
   </si>
   <si>
     <t>If/when in resolution/remission</t>
@@ -638,7 +770,7 @@
     <t>Condition.stage</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -658,19 +790,7 @@
     <t>Condition.stage.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Condition.stage.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Condition.stage.modifierExtension</t>
@@ -692,9 +812,6 @@
     <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
@@ -711,7 +828,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-DiagnosticReport|http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -774,7 +891,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource]]}
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-Resource)
 </t>
   </si>
   <si>
@@ -796,7 +913,10 @@
     <t>May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>.targetBodySiteCode</t>
@@ -811,41 +931,41 @@
     <t>laterality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-Laterality-extension}
 </t>
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Orientation-extension]]} {[]}
+    <t>anatomicalorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+    <t>AnatomicalOrientation of the body location, if needed to distinguish from a similar location in another orientation.
 The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>relationtolandmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelationToLandmark-extension]]} {[]}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/mcode/StructureDefinition/obf-datatype-RelationToLandmark-extension}
 </t>
   </si>
   <si>
@@ -854,21 +974,17 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>Condition.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -890,7 +1006,7 @@
     <t>Condition.bodySite.text</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -977,67 +1093,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1073,7 +1189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1105,8 +1221,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="77.01171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.26953125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.12890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1590,23 +1706,21 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>64</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1628,7 +1742,7 @@
         <v>40</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>40</v>
@@ -1654,15 +1768,11 @@
       <c r="AD5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE5" t="s" s="2">
-        <v>60</v>
-      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG5" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG5" s="2"/>
       <c r="AH5" t="s" s="2">
         <v>40</v>
       </c>
@@ -1676,7 +1786,7 @@
         <v>40</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>40</v>
@@ -1684,18 +1794,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1739,41 +1849,35 @@
         <v>40</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" s="2"/>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>65</v>
-      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG6" s="2"/>
       <c r="AH6" t="s" s="2">
         <v>40</v>
       </c>
@@ -1787,7 +1891,7 @@
         <v>40</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>40</v>
@@ -1795,11 +1899,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1818,17 +1924,13 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>40</v>
@@ -1850,7 +1952,7 @@
         <v>40</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>40</v>
@@ -1877,16 +1979,16 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
@@ -1898,7 +2000,7 @@
         <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>40</v>
@@ -1906,18 +2008,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -1926,19 +2028,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1961,7 +2063,7 @@
         <v>40</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>40</v>
@@ -1987,15 +2089,11 @@
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>81</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
@@ -2009,7 +2107,7 @@
         <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>40</v>
@@ -2017,18 +2115,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>40</v>
@@ -2037,19 +2135,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2072,7 +2170,7 @@
         <v>40</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>40</v>
@@ -2087,24 +2185,22 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2118,7 +2214,7 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>40</v>
@@ -2126,11 +2222,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2139,7 +2233,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2148,16 +2242,20 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2179,7 +2277,7 @@
         <v>40</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
         <v>40</v>
@@ -2205,15 +2303,11 @@
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2235,11 +2329,9 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2248,7 +2340,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2257,16 +2349,20 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2288,16 +2384,16 @@
         <v>40</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2314,15 +2410,11 @@
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2344,11 +2436,9 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2357,7 +2447,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2366,16 +2456,20 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="L12" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2397,13 +2491,13 @@
         <v>40</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="Y12" t="s" s="2">
         <v>40</v>
@@ -2423,15 +2517,11 @@
       <c r="AD12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>88</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2453,18 +2543,18 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2473,19 +2563,19 @@
         <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2535,13 +2625,13 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
@@ -2556,7 +2646,7 @@
         <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2564,7 +2654,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2575,7 +2665,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -2584,21 +2674,21 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2622,13 +2712,13 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2646,13 +2736,13 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
@@ -2667,29 +2757,29 @@
         <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>115</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -2698,15 +2788,17 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2758,44 +2850,44 @@
         <v>115</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -2804,19 +2896,19 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2866,13 +2958,13 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -2884,13 +2976,13 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>129</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -2899,14 +2991,14 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -2915,18 +3007,20 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2963,16 +3057,14 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>130</v>
@@ -2981,7 +3073,7 @@
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
@@ -2993,20 +3085,22 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3024,20 +3118,16 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3086,13 +3176,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3104,32 +3194,34 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -3138,13 +3230,11 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3171,11 +3261,13 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
@@ -3193,13 +3285,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3208,29 +3300,31 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3245,17 +3339,13 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3280,11 +3370,13 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3302,13 +3394,13 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
@@ -3317,50 +3409,50 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3387,11 +3479,13 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3409,13 +3503,13 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3424,50 +3518,50 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3494,11 +3588,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3516,13 +3612,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3531,53 +3627,53 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3603,13 +3699,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3627,13 +3723,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3645,18 +3741,18 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>182</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3667,7 +3763,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3679,18 +3775,18 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3738,13 +3834,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3756,18 +3852,18 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3775,32 +3871,30 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3849,10 +3943,10 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>50</v>
@@ -3864,21 +3958,21 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>197</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3889,7 +3983,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -3901,15 +3995,17 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3958,7 +4054,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3970,24 +4066,24 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4007,16 +4103,16 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4067,7 +4163,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4085,29 +4181,29 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4116,19 +4212,19 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4178,13 +4274,13 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4196,51 +4292,49 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4265,13 +4359,11 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4289,13 +4381,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4304,21 +4396,21 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4326,7 +4418,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>50</v>
@@ -4338,18 +4430,20 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4374,13 +4468,11 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
@@ -4398,7 +4490,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4407,27 +4499,27 @@
         <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4438,25 +4530,25 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4483,13 +4575,11 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4507,36 +4597,36 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4544,32 +4634,30 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4594,13 +4682,11 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4618,36 +4704,36 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4658,7 +4744,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4667,18 +4753,20 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4703,13 +4791,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4727,7 +4815,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4745,29 +4833,29 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4776,19 +4864,19 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4838,13 +4926,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4856,50 +4944,50 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4949,13 +5037,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -4970,15 +5058,15 @@
         <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4989,7 +5077,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5001,13 +5089,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5034,11 +5122,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5056,7 +5146,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5065,10 +5155,10 @@
         <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
@@ -5077,7 +5167,7 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5085,7 +5175,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5096,7 +5186,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5105,16 +5195,16 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5165,16 +5255,16 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>40</v>
@@ -5186,7 +5276,7 @@
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5194,11 +5284,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5214,19 +5304,19 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>247</v>
+        <v>68</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5252,11 +5342,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5274,7 +5366,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5295,7 +5387,7 @@
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5303,38 +5395,40 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5356,7 +5450,7 @@
         <v>40</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>40</v>
@@ -5382,11 +5476,15 @@
       <c r="AD39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5400,7 +5498,7 @@
         <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5408,18 +5506,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5428,20 +5526,18 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5463,37 +5559,43 @@
         <v>40</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AE40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
@@ -5502,10 +5604,10 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5513,11 +5615,9 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5535,14 +5635,16 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="L41" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5566,7 +5668,7 @@
         <v>40</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>40</v>
@@ -5593,7 +5695,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5602,7 +5704,7 @@
         <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
@@ -5614,7 +5716,7 @@
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5622,11 +5724,9 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5644,16 +5744,20 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="L42" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5675,7 +5779,7 @@
         <v>40</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>40</v>
@@ -5702,7 +5806,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5714,7 +5818,7 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
@@ -5723,7 +5827,7 @@
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5731,11 +5835,9 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5744,7 +5846,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -5756,11 +5858,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="L43" t="s" s="2">
-        <v>261</v>
+        <v>62</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5784,7 +5888,7 @@
         <v>40</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>40</v>
@@ -5811,13 +5915,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -5832,7 +5936,7 @@
         <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -5840,11 +5944,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5860,23 +5964,21 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>265</v>
+        <v>68</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -5897,7 +5999,7 @@
         <v>40</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
         <v>40</v>
@@ -5923,11 +6025,15 @@
       <c r="AD44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
@@ -5938,10 +6044,10 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>269</v>
+        <v>63</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
@@ -5953,39 +6059,37 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>271</v>
+        <v>66</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6006,7 +6110,7 @@
         <v>40</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>40</v>
@@ -6032,11 +6136,15 @@
       <c r="AD45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE45" s="2"/>
+      <c r="AE45" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG45" s="2"/>
+      <c r="AG45" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6047,10 +6155,10 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6058,7 +6166,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6081,13 +6189,13 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6114,13 +6222,11 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6138,7 +6244,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6147,7 +6253,7 @@
         <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
@@ -6156,17 +6262,1101 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="L48" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" s="2"/>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" s="2"/>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB50" s="2"/>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" s="2"/>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" s="2"/>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" s="2"/>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" s="2"/>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" s="2"/>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" s="2"/>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM46">
+  <autoFilter ref="A1:AM56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6176,7 +7366,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
